--- a/MaleRoadStd2020.xlsx
+++ b/MaleRoadStd2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Jones\Documents\AgeGrade\Age-Grade-Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB40CD-DC82-4DCF-BD3C-B60C04E2D99E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9FA820-714C-4505-B54F-F416DBDFE016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="660" windowWidth="14520" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AgeStdFactors" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -504,7 +504,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,7 +637,7 @@
     <xf numFmtId="46" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,6 +679,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="46" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1138,7 @@
       <c r="U2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="60" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1191,7 +1206,7 @@
       <c r="U3" s="18">
         <v>160.93440000000001</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="60">
         <v>200</v>
       </c>
     </row>
@@ -1259,7 +1274,7 @@
       <c r="U4" s="2">
         <v>39850</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="55">
         <v>52800.000000000007</v>
       </c>
     </row>
@@ -1327,7 +1342,7 @@
       <c r="U5" s="4">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="66">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -1395,7 +1410,7 @@
       <c r="U6" s="5">
         <v>0.60560000000000003</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="67">
         <v>0.60560000000000003</v>
       </c>
     </row>
@@ -1463,7 +1478,7 @@
       <c r="U7" s="30">
         <v>0.65959999999999996</v>
       </c>
-      <c r="V7" s="30">
+      <c r="V7" s="68">
         <v>0.65959999999999996</v>
       </c>
     </row>
@@ -1531,7 +1546,7 @@
       <c r="U8" s="30">
         <v>0.70960000000000001</v>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="68">
         <v>0.70960000000000001</v>
       </c>
     </row>
@@ -1599,7 +1614,7 @@
       <c r="U9" s="30">
         <v>0.75560000000000005</v>
       </c>
-      <c r="V9" s="30">
+      <c r="V9" s="68">
         <v>0.75560000000000005</v>
       </c>
     </row>
@@ -1667,7 +1682,7 @@
       <c r="U10" s="30">
         <v>0.79759999999999998</v>
       </c>
-      <c r="V10" s="30">
+      <c r="V10" s="68">
         <v>0.79759999999999998</v>
       </c>
     </row>
@@ -1735,7 +1750,7 @@
       <c r="U11" s="7">
         <v>0.83560000000000001</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="69">
         <v>0.83560000000000001</v>
       </c>
     </row>
@@ -1803,7 +1818,7 @@
       <c r="U12" s="30">
         <v>0.86960000000000004</v>
       </c>
-      <c r="V12" s="30">
+      <c r="V12" s="68">
         <v>0.86960000000000004</v>
       </c>
     </row>
@@ -1871,7 +1886,7 @@
       <c r="U13" s="30">
         <v>0.89959999999999996</v>
       </c>
-      <c r="V13" s="30">
+      <c r="V13" s="68">
         <v>0.89959999999999996</v>
       </c>
     </row>
@@ -1939,7 +1954,7 @@
       <c r="U14" s="30">
         <v>0.92559999999999998</v>
       </c>
-      <c r="V14" s="30">
+      <c r="V14" s="68">
         <v>0.92559999999999998</v>
       </c>
     </row>
@@ -2007,7 +2022,7 @@
       <c r="U15" s="30">
         <v>0.9476</v>
       </c>
-      <c r="V15" s="30">
+      <c r="V15" s="68">
         <v>0.9476</v>
       </c>
     </row>
@@ -2075,7 +2090,7 @@
       <c r="U16" s="7">
         <v>0.96560000000000001</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="69">
         <v>0.96560000000000001</v>
       </c>
     </row>
@@ -2143,7 +2158,7 @@
       <c r="U17" s="30">
         <v>0.97960000000000003</v>
       </c>
-      <c r="V17" s="30">
+      <c r="V17" s="68">
         <v>0.97960000000000003</v>
       </c>
     </row>
@@ -2211,7 +2226,7 @@
       <c r="U18" s="30">
         <v>0.99160000000000004</v>
       </c>
-      <c r="V18" s="30">
+      <c r="V18" s="68">
         <v>0.99160000000000004</v>
       </c>
     </row>
@@ -2279,7 +2294,7 @@
       <c r="U19" s="30">
         <v>0.99929999999999997</v>
       </c>
-      <c r="V19" s="30">
+      <c r="V19" s="68">
         <v>0.99929999999999997</v>
       </c>
     </row>
@@ -2347,7 +2362,7 @@
       <c r="U20" s="30">
         <v>1</v>
       </c>
-      <c r="V20" s="30">
+      <c r="V20" s="68">
         <v>1</v>
       </c>
     </row>
@@ -2415,7 +2430,7 @@
       <c r="U21" s="7">
         <v>1</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="69">
         <v>1</v>
       </c>
     </row>
@@ -2483,7 +2498,7 @@
       <c r="U22" s="30">
         <v>1</v>
       </c>
-      <c r="V22" s="30">
+      <c r="V22" s="68">
         <v>1</v>
       </c>
     </row>
@@ -2551,7 +2566,7 @@
       <c r="U23" s="30">
         <v>1</v>
       </c>
-      <c r="V23" s="30">
+      <c r="V23" s="68">
         <v>1</v>
       </c>
     </row>
@@ -2619,7 +2634,7 @@
       <c r="U24" s="30">
         <v>1</v>
       </c>
-      <c r="V24" s="30">
+      <c r="V24" s="68">
         <v>1</v>
       </c>
     </row>
@@ -2687,7 +2702,7 @@
       <c r="U25" s="30">
         <v>1</v>
       </c>
-      <c r="V25" s="30">
+      <c r="V25" s="68">
         <v>1</v>
       </c>
     </row>
@@ -2755,7 +2770,7 @@
       <c r="U26" s="7">
         <v>1</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="69">
         <v>1</v>
       </c>
     </row>
@@ -2823,7 +2838,7 @@
       <c r="U27" s="30">
         <v>1</v>
       </c>
-      <c r="V27" s="30">
+      <c r="V27" s="68">
         <v>1</v>
       </c>
     </row>
@@ -2891,7 +2906,7 @@
       <c r="U28" s="30">
         <v>1</v>
       </c>
-      <c r="V28" s="30">
+      <c r="V28" s="68">
         <v>1</v>
       </c>
     </row>
@@ -2959,7 +2974,7 @@
       <c r="U29" s="30">
         <v>1</v>
       </c>
-      <c r="V29" s="30">
+      <c r="V29" s="68">
         <v>1</v>
       </c>
     </row>
@@ -3027,7 +3042,7 @@
       <c r="U30" s="30">
         <v>1</v>
       </c>
-      <c r="V30" s="30">
+      <c r="V30" s="68">
         <v>1</v>
       </c>
     </row>
@@ -3095,7 +3110,7 @@
       <c r="U31" s="7">
         <v>1</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="69">
         <v>1</v>
       </c>
     </row>
@@ -3163,7 +3178,7 @@
       <c r="U32" s="30">
         <v>1</v>
       </c>
-      <c r="V32" s="30">
+      <c r="V32" s="68">
         <v>1</v>
       </c>
     </row>
@@ -3231,7 +3246,7 @@
       <c r="U33" s="30">
         <v>0.99980000000000002</v>
       </c>
-      <c r="V33" s="30">
+      <c r="V33" s="68">
         <v>0.99980000000000002</v>
       </c>
     </row>
@@ -3299,7 +3314,7 @@
       <c r="U34" s="30">
         <v>0.99880000000000002</v>
       </c>
-      <c r="V34" s="30">
+      <c r="V34" s="68">
         <v>0.99880000000000002</v>
       </c>
     </row>
@@ -3367,7 +3382,7 @@
       <c r="U35" s="30">
         <v>0.99709999999999999</v>
       </c>
-      <c r="V35" s="30">
+      <c r="V35" s="68">
         <v>0.99709999999999999</v>
       </c>
     </row>
@@ -3435,7 +3450,7 @@
       <c r="U36" s="7">
         <v>0.99450000000000005</v>
       </c>
-      <c r="V36" s="7">
+      <c r="V36" s="69">
         <v>0.99450000000000005</v>
       </c>
     </row>
@@ -3503,7 +3518,7 @@
       <c r="U37" s="30">
         <v>0.99109999999999998</v>
       </c>
-      <c r="V37" s="30">
+      <c r="V37" s="68">
         <v>0.99109999999999998</v>
       </c>
     </row>
@@ -3571,7 +3586,7 @@
       <c r="U38" s="30">
         <v>0.98699999999999999</v>
       </c>
-      <c r="V38" s="30">
+      <c r="V38" s="68">
         <v>0.98699999999999999</v>
       </c>
     </row>
@@ -3639,7 +3654,7 @@
       <c r="U39" s="30">
         <v>0.98199999999999998</v>
       </c>
-      <c r="V39" s="30">
+      <c r="V39" s="68">
         <v>0.98199999999999998</v>
       </c>
     </row>
@@ -3707,7 +3722,7 @@
       <c r="U40" s="30">
         <v>0.97619999999999996</v>
       </c>
-      <c r="V40" s="30">
+      <c r="V40" s="68">
         <v>0.97619999999999996</v>
       </c>
     </row>
@@ -3775,7 +3790,7 @@
       <c r="U41" s="7">
         <v>0.96960000000000002</v>
       </c>
-      <c r="V41" s="7">
+      <c r="V41" s="69">
         <v>0.96960000000000002</v>
       </c>
     </row>
@@ -3843,7 +3858,7 @@
       <c r="U42" s="30">
         <v>0.96230000000000004</v>
       </c>
-      <c r="V42" s="30">
+      <c r="V42" s="68">
         <v>0.96230000000000004</v>
       </c>
     </row>
@@ -3911,7 +3926,7 @@
       <c r="U43" s="30">
         <v>0.95450000000000002</v>
       </c>
-      <c r="V43" s="30">
+      <c r="V43" s="68">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -3979,7 +3994,7 @@
       <c r="U44" s="30">
         <v>0.94669999999999999</v>
       </c>
-      <c r="V44" s="30">
+      <c r="V44" s="68">
         <v>0.94669999999999999</v>
       </c>
     </row>
@@ -4047,7 +4062,7 @@
       <c r="U45" s="30">
         <v>0.93889999999999996</v>
       </c>
-      <c r="V45" s="30">
+      <c r="V45" s="68">
         <v>0.93889999999999996</v>
       </c>
     </row>
@@ -4115,7 +4130,7 @@
       <c r="U46" s="7">
         <v>0.93110000000000004</v>
       </c>
-      <c r="V46" s="7">
+      <c r="V46" s="69">
         <v>0.93110000000000004</v>
       </c>
     </row>
@@ -4183,7 +4198,7 @@
       <c r="U47" s="30">
         <v>0.9234</v>
       </c>
-      <c r="V47" s="30">
+      <c r="V47" s="68">
         <v>0.9234</v>
       </c>
     </row>
@@ -4251,7 +4266,7 @@
       <c r="U48" s="30">
         <v>0.91559999999999997</v>
       </c>
-      <c r="V48" s="30">
+      <c r="V48" s="68">
         <v>0.91559999999999997</v>
       </c>
     </row>
@@ -4319,7 +4334,7 @@
       <c r="U49" s="30">
         <v>0.90780000000000005</v>
       </c>
-      <c r="V49" s="30">
+      <c r="V49" s="68">
         <v>0.90780000000000005</v>
       </c>
     </row>
@@ -4387,7 +4402,7 @@
       <c r="U50" s="30">
         <v>0.9</v>
       </c>
-      <c r="V50" s="30">
+      <c r="V50" s="68">
         <v>0.9</v>
       </c>
     </row>
@@ -4455,7 +4470,7 @@
       <c r="U51" s="7">
         <v>0.89219999999999999</v>
       </c>
-      <c r="V51" s="7">
+      <c r="V51" s="69">
         <v>0.89219999999999999</v>
       </c>
     </row>
@@ -4523,7 +4538,7 @@
       <c r="U52" s="30">
         <v>0.88449999999999995</v>
       </c>
-      <c r="V52" s="30">
+      <c r="V52" s="68">
         <v>0.88449999999999995</v>
       </c>
     </row>
@@ -4591,7 +4606,7 @@
       <c r="U53" s="30">
         <v>0.87670000000000003</v>
       </c>
-      <c r="V53" s="30">
+      <c r="V53" s="68">
         <v>0.87670000000000003</v>
       </c>
     </row>
@@ -4659,7 +4674,7 @@
       <c r="U54" s="30">
         <v>0.86890000000000001</v>
       </c>
-      <c r="V54" s="30">
+      <c r="V54" s="68">
         <v>0.86890000000000001</v>
       </c>
     </row>
@@ -4727,7 +4742,7 @@
       <c r="U55" s="30">
         <v>0.86109999999999998</v>
       </c>
-      <c r="V55" s="30">
+      <c r="V55" s="68">
         <v>0.86109999999999998</v>
       </c>
     </row>
@@ -4795,7 +4810,7 @@
       <c r="U56" s="7">
         <v>0.85329999999999995</v>
       </c>
-      <c r="V56" s="7">
+      <c r="V56" s="69">
         <v>0.85329999999999995</v>
       </c>
     </row>
@@ -4863,7 +4878,7 @@
       <c r="U57" s="30">
         <v>0.84560000000000002</v>
       </c>
-      <c r="V57" s="30">
+      <c r="V57" s="68">
         <v>0.84560000000000002</v>
       </c>
     </row>
@@ -4931,7 +4946,7 @@
       <c r="U58" s="30">
         <v>0.83779999999999999</v>
       </c>
-      <c r="V58" s="30">
+      <c r="V58" s="68">
         <v>0.83779999999999999</v>
       </c>
     </row>
@@ -4999,7 +5014,7 @@
       <c r="U59" s="30">
         <v>0.83</v>
       </c>
-      <c r="V59" s="30">
+      <c r="V59" s="68">
         <v>0.83</v>
       </c>
     </row>
@@ -5067,7 +5082,7 @@
       <c r="U60" s="30">
         <v>0.82220000000000004</v>
       </c>
-      <c r="V60" s="30">
+      <c r="V60" s="68">
         <v>0.82220000000000004</v>
       </c>
     </row>
@@ -5135,7 +5150,7 @@
       <c r="U61" s="7">
         <v>0.81440000000000001</v>
       </c>
-      <c r="V61" s="7">
+      <c r="V61" s="69">
         <v>0.81440000000000001</v>
       </c>
     </row>
@@ -5203,7 +5218,7 @@
       <c r="U62" s="30">
         <v>0.80669999999999997</v>
       </c>
-      <c r="V62" s="30">
+      <c r="V62" s="68">
         <v>0.80669999999999997</v>
       </c>
     </row>
@@ -5271,7 +5286,7 @@
       <c r="U63" s="30">
         <v>0.79890000000000005</v>
       </c>
-      <c r="V63" s="30">
+      <c r="V63" s="68">
         <v>0.79890000000000005</v>
       </c>
     </row>
@@ -5339,7 +5354,7 @@
       <c r="U64" s="30">
         <v>0.79110000000000003</v>
       </c>
-      <c r="V64" s="30">
+      <c r="V64" s="68">
         <v>0.79110000000000003</v>
       </c>
     </row>
@@ -5407,7 +5422,7 @@
       <c r="U65" s="30">
         <v>0.7833</v>
       </c>
-      <c r="V65" s="30">
+      <c r="V65" s="68">
         <v>0.7833</v>
       </c>
     </row>
@@ -5475,7 +5490,7 @@
       <c r="U66" s="7">
         <v>0.77549999999999997</v>
       </c>
-      <c r="V66" s="7">
+      <c r="V66" s="69">
         <v>0.77549999999999997</v>
       </c>
     </row>
@@ -5543,7 +5558,7 @@
       <c r="U67" s="30">
         <v>0.76780000000000004</v>
       </c>
-      <c r="V67" s="30">
+      <c r="V67" s="68">
         <v>0.76780000000000004</v>
       </c>
     </row>
@@ -5611,7 +5626,7 @@
       <c r="U68" s="30">
         <v>0.76</v>
       </c>
-      <c r="V68" s="30">
+      <c r="V68" s="68">
         <v>0.76</v>
       </c>
     </row>
@@ -5679,7 +5694,7 @@
       <c r="U69" s="30">
         <v>0.75219999999999998</v>
       </c>
-      <c r="V69" s="30">
+      <c r="V69" s="68">
         <v>0.75219999999999998</v>
       </c>
     </row>
@@ -5747,7 +5762,7 @@
       <c r="U70" s="30">
         <v>0.74439999999999995</v>
       </c>
-      <c r="V70" s="30">
+      <c r="V70" s="68">
         <v>0.74439999999999995</v>
       </c>
     </row>
@@ -5815,7 +5830,7 @@
       <c r="U71" s="7">
         <v>0.73660000000000003</v>
       </c>
-      <c r="V71" s="7">
+      <c r="V71" s="69">
         <v>0.73660000000000003</v>
       </c>
     </row>
@@ -5883,7 +5898,7 @@
       <c r="U72" s="30">
         <v>0.72860000000000003</v>
       </c>
-      <c r="V72" s="30">
+      <c r="V72" s="68">
         <v>0.72860000000000003</v>
       </c>
     </row>
@@ -5951,7 +5966,7 @@
       <c r="U73" s="30">
         <v>0.7198</v>
       </c>
-      <c r="V73" s="30">
+      <c r="V73" s="68">
         <v>0.7198</v>
       </c>
     </row>
@@ -6019,7 +6034,7 @@
       <c r="U74" s="30">
         <v>0.71040000000000003</v>
       </c>
-      <c r="V74" s="30">
+      <c r="V74" s="68">
         <v>0.71040000000000003</v>
       </c>
     </row>
@@ -6087,7 +6102,7 @@
       <c r="U75" s="30">
         <v>0.70020000000000004</v>
       </c>
-      <c r="V75" s="30">
+      <c r="V75" s="68">
         <v>0.70020000000000004</v>
       </c>
     </row>
@@ -6155,7 +6170,7 @@
       <c r="U76" s="7">
         <v>0.68930000000000002</v>
       </c>
-      <c r="V76" s="7">
+      <c r="V76" s="69">
         <v>0.68930000000000002</v>
       </c>
     </row>
@@ -6223,7 +6238,7 @@
       <c r="U77" s="30">
         <v>0.67779999999999996</v>
       </c>
-      <c r="V77" s="30">
+      <c r="V77" s="68">
         <v>0.67779999999999996</v>
       </c>
     </row>
@@ -6291,7 +6306,7 @@
       <c r="U78" s="30">
         <v>0.66549999999999998</v>
       </c>
-      <c r="V78" s="30">
+      <c r="V78" s="68">
         <v>0.66549999999999998</v>
       </c>
     </row>
@@ -6359,7 +6374,7 @@
       <c r="U79" s="30">
         <v>0.65259999999999996</v>
       </c>
-      <c r="V79" s="30">
+      <c r="V79" s="68">
         <v>0.65259999999999996</v>
       </c>
     </row>
@@ -6427,7 +6442,7 @@
       <c r="U80" s="30">
         <v>0.63890000000000002</v>
       </c>
-      <c r="V80" s="30">
+      <c r="V80" s="68">
         <v>0.63890000000000002</v>
       </c>
     </row>
@@ -6495,7 +6510,7 @@
       <c r="U81" s="7">
         <v>0.62450000000000006</v>
       </c>
-      <c r="V81" s="7">
+      <c r="V81" s="69">
         <v>0.62450000000000006</v>
       </c>
     </row>
@@ -6563,7 +6578,7 @@
       <c r="U82" s="30">
         <v>0.60950000000000004</v>
       </c>
-      <c r="V82" s="30">
+      <c r="V82" s="68">
         <v>0.60950000000000004</v>
       </c>
     </row>
@@ -6631,7 +6646,7 @@
       <c r="U83" s="30">
         <v>0.59370000000000001</v>
       </c>
-      <c r="V83" s="30">
+      <c r="V83" s="68">
         <v>0.59370000000000001</v>
       </c>
     </row>
@@ -6699,7 +6714,7 @@
       <c r="U84" s="30">
         <v>0.57730000000000004</v>
       </c>
-      <c r="V84" s="30">
+      <c r="V84" s="68">
         <v>0.57730000000000004</v>
       </c>
     </row>
@@ -6767,7 +6782,7 @@
       <c r="U85" s="30">
         <v>0.56010000000000004</v>
       </c>
-      <c r="V85" s="30">
+      <c r="V85" s="68">
         <v>0.56010000000000004</v>
       </c>
     </row>
@@ -6835,7 +6850,7 @@
       <c r="U86" s="7">
         <v>0.54220000000000002</v>
       </c>
-      <c r="V86" s="7">
+      <c r="V86" s="69">
         <v>0.54220000000000002</v>
       </c>
     </row>
@@ -6903,7 +6918,7 @@
       <c r="U87" s="30">
         <v>0.52370000000000005</v>
       </c>
-      <c r="V87" s="30">
+      <c r="V87" s="68">
         <v>0.52370000000000005</v>
       </c>
     </row>
@@ -6971,7 +6986,7 @@
       <c r="U88" s="30">
         <v>0.50439999999999996</v>
       </c>
-      <c r="V88" s="30">
+      <c r="V88" s="68">
         <v>0.50439999999999996</v>
       </c>
     </row>
@@ -7039,7 +7054,7 @@
       <c r="U89" s="30">
         <v>0.48449999999999999</v>
       </c>
-      <c r="V89" s="30">
+      <c r="V89" s="68">
         <v>0.48449999999999999</v>
       </c>
     </row>
@@ -7107,7 +7122,7 @@
       <c r="U90" s="30">
         <v>0.46379999999999999</v>
       </c>
-      <c r="V90" s="30">
+      <c r="V90" s="68">
         <v>0.46379999999999999</v>
       </c>
     </row>
@@ -7175,7 +7190,7 @@
       <c r="U91" s="7">
         <v>0.44240000000000002</v>
       </c>
-      <c r="V91" s="7">
+      <c r="V91" s="69">
         <v>0.44240000000000002</v>
       </c>
     </row>
@@ -7243,7 +7258,7 @@
       <c r="U92" s="30">
         <v>0.4204</v>
       </c>
-      <c r="V92" s="30">
+      <c r="V92" s="68">
         <v>0.4204</v>
       </c>
     </row>
@@ -7311,7 +7326,7 @@
       <c r="U93" s="30">
         <v>0.39760000000000001</v>
       </c>
-      <c r="V93" s="30">
+      <c r="V93" s="68">
         <v>0.39760000000000001</v>
       </c>
     </row>
@@ -7379,7 +7394,7 @@
       <c r="U94" s="30">
         <v>0.37419999999999998</v>
       </c>
-      <c r="V94" s="30">
+      <c r="V94" s="68">
         <v>0.37419999999999998</v>
       </c>
     </row>
@@ -7447,7 +7462,7 @@
       <c r="U95" s="30">
         <v>0.35</v>
       </c>
-      <c r="V95" s="30">
+      <c r="V95" s="68">
         <v>0.35</v>
       </c>
     </row>
@@ -7515,7 +7530,7 @@
       <c r="U96" s="7">
         <v>0.3251</v>
       </c>
-      <c r="V96" s="7">
+      <c r="V96" s="69">
         <v>0.3251</v>
       </c>
     </row>
@@ -7583,7 +7598,7 @@
       <c r="U97" s="30">
         <v>0.29959999999999998</v>
       </c>
-      <c r="V97" s="30">
+      <c r="V97" s="68">
         <v>0.29959999999999998</v>
       </c>
     </row>
@@ -7651,7 +7666,7 @@
       <c r="U98" s="30">
         <v>0.27329999999999999</v>
       </c>
-      <c r="V98" s="30">
+      <c r="V98" s="68">
         <v>0.27329999999999999</v>
       </c>
     </row>
@@ -7719,7 +7734,7 @@
       <c r="U99" s="30">
         <v>0.24640000000000001</v>
       </c>
-      <c r="V99" s="30">
+      <c r="V99" s="68">
         <v>0.24640000000000001</v>
       </c>
     </row>
@@ -7787,7 +7802,7 @@
       <c r="U100" s="30">
         <v>0.21870000000000001</v>
       </c>
-      <c r="V100" s="30">
+      <c r="V100" s="68">
         <v>0.21870000000000001</v>
       </c>
     </row>
@@ -7855,7 +7870,7 @@
       <c r="U101" s="7">
         <v>0.1903</v>
       </c>
-      <c r="V101" s="7">
+      <c r="V101" s="70">
         <v>0.1903</v>
       </c>
     </row>

--- a/MaleRoadStd2020.xlsx
+++ b/MaleRoadStd2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Jones\Documents\AgeGrade\Age-Grade-Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9FA820-714C-4505-B54F-F416DBDFE016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345D4BB3-5E2E-4E1C-AC23-1625069FDB5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="660" windowWidth="14520" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="300" windowWidth="13410" windowHeight="15450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AgeStdFactors" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <t>https://github.com/AlanLyttonJones/Age-Grade-Tables</t>
   </si>
   <si>
-    <t>Approved 2020-05-20 by Long Distance Running (LDR) of USA Track&amp;Field (USATF)</t>
+    <t>Approved 2020-05-20 by Masters Long Distance Running (MLDR) of USA Track&amp;Field (USATF)</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,7 @@
     <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,13 +199,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -504,7 +497,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,7 +631,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1130,7 @@
       <c r="U2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="60" t="s">
+      <c r="V2" s="59" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1206,7 +1198,7 @@
       <c r="U3" s="18">
         <v>160.93440000000001</v>
       </c>
-      <c r="V3" s="60">
+      <c r="V3" s="59">
         <v>200</v>
       </c>
     </row>
@@ -1274,7 +1266,7 @@
       <c r="U4" s="2">
         <v>39850</v>
       </c>
-      <c r="V4" s="55">
+      <c r="V4" s="54">
         <v>52800.000000000007</v>
       </c>
     </row>
@@ -1342,7 +1334,7 @@
       <c r="U5" s="4">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V5" s="66">
+      <c r="V5" s="65">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -1410,7 +1402,7 @@
       <c r="U6" s="5">
         <v>0.60560000000000003</v>
       </c>
-      <c r="V6" s="67">
+      <c r="V6" s="66">
         <v>0.60560000000000003</v>
       </c>
     </row>
@@ -1478,7 +1470,7 @@
       <c r="U7" s="30">
         <v>0.65959999999999996</v>
       </c>
-      <c r="V7" s="68">
+      <c r="V7" s="67">
         <v>0.65959999999999996</v>
       </c>
     </row>
@@ -1546,7 +1538,7 @@
       <c r="U8" s="30">
         <v>0.70960000000000001</v>
       </c>
-      <c r="V8" s="68">
+      <c r="V8" s="67">
         <v>0.70960000000000001</v>
       </c>
     </row>
@@ -1614,7 +1606,7 @@
       <c r="U9" s="30">
         <v>0.75560000000000005</v>
       </c>
-      <c r="V9" s="68">
+      <c r="V9" s="67">
         <v>0.75560000000000005</v>
       </c>
     </row>
@@ -1682,7 +1674,7 @@
       <c r="U10" s="30">
         <v>0.79759999999999998</v>
       </c>
-      <c r="V10" s="68">
+      <c r="V10" s="67">
         <v>0.79759999999999998</v>
       </c>
     </row>
@@ -1750,7 +1742,7 @@
       <c r="U11" s="7">
         <v>0.83560000000000001</v>
       </c>
-      <c r="V11" s="69">
+      <c r="V11" s="68">
         <v>0.83560000000000001</v>
       </c>
     </row>
@@ -1818,7 +1810,7 @@
       <c r="U12" s="30">
         <v>0.86960000000000004</v>
       </c>
-      <c r="V12" s="68">
+      <c r="V12" s="67">
         <v>0.86960000000000004</v>
       </c>
     </row>
@@ -1886,7 +1878,7 @@
       <c r="U13" s="30">
         <v>0.89959999999999996</v>
       </c>
-      <c r="V13" s="68">
+      <c r="V13" s="67">
         <v>0.89959999999999996</v>
       </c>
     </row>
@@ -1954,7 +1946,7 @@
       <c r="U14" s="30">
         <v>0.92559999999999998</v>
       </c>
-      <c r="V14" s="68">
+      <c r="V14" s="67">
         <v>0.92559999999999998</v>
       </c>
     </row>
@@ -2022,7 +2014,7 @@
       <c r="U15" s="30">
         <v>0.9476</v>
       </c>
-      <c r="V15" s="68">
+      <c r="V15" s="67">
         <v>0.9476</v>
       </c>
     </row>
@@ -2090,7 +2082,7 @@
       <c r="U16" s="7">
         <v>0.96560000000000001</v>
       </c>
-      <c r="V16" s="69">
+      <c r="V16" s="68">
         <v>0.96560000000000001</v>
       </c>
     </row>
@@ -2158,7 +2150,7 @@
       <c r="U17" s="30">
         <v>0.97960000000000003</v>
       </c>
-      <c r="V17" s="68">
+      <c r="V17" s="67">
         <v>0.97960000000000003</v>
       </c>
     </row>
@@ -2226,7 +2218,7 @@
       <c r="U18" s="30">
         <v>0.99160000000000004</v>
       </c>
-      <c r="V18" s="68">
+      <c r="V18" s="67">
         <v>0.99160000000000004</v>
       </c>
     </row>
@@ -2294,7 +2286,7 @@
       <c r="U19" s="30">
         <v>0.99929999999999997</v>
       </c>
-      <c r="V19" s="68">
+      <c r="V19" s="67">
         <v>0.99929999999999997</v>
       </c>
     </row>
@@ -2362,7 +2354,7 @@
       <c r="U20" s="30">
         <v>1</v>
       </c>
-      <c r="V20" s="68">
+      <c r="V20" s="67">
         <v>1</v>
       </c>
     </row>
@@ -2430,7 +2422,7 @@
       <c r="U21" s="7">
         <v>1</v>
       </c>
-      <c r="V21" s="69">
+      <c r="V21" s="68">
         <v>1</v>
       </c>
     </row>
@@ -2498,7 +2490,7 @@
       <c r="U22" s="30">
         <v>1</v>
       </c>
-      <c r="V22" s="68">
+      <c r="V22" s="67">
         <v>1</v>
       </c>
     </row>
@@ -2566,7 +2558,7 @@
       <c r="U23" s="30">
         <v>1</v>
       </c>
-      <c r="V23" s="68">
+      <c r="V23" s="67">
         <v>1</v>
       </c>
     </row>
@@ -2634,7 +2626,7 @@
       <c r="U24" s="30">
         <v>1</v>
       </c>
-      <c r="V24" s="68">
+      <c r="V24" s="67">
         <v>1</v>
       </c>
     </row>
@@ -2702,7 +2694,7 @@
       <c r="U25" s="30">
         <v>1</v>
       </c>
-      <c r="V25" s="68">
+      <c r="V25" s="67">
         <v>1</v>
       </c>
     </row>
@@ -2770,7 +2762,7 @@
       <c r="U26" s="7">
         <v>1</v>
       </c>
-      <c r="V26" s="69">
+      <c r="V26" s="68">
         <v>1</v>
       </c>
     </row>
@@ -2838,7 +2830,7 @@
       <c r="U27" s="30">
         <v>1</v>
       </c>
-      <c r="V27" s="68">
+      <c r="V27" s="67">
         <v>1</v>
       </c>
     </row>
@@ -2906,7 +2898,7 @@
       <c r="U28" s="30">
         <v>1</v>
       </c>
-      <c r="V28" s="68">
+      <c r="V28" s="67">
         <v>1</v>
       </c>
     </row>
@@ -2974,7 +2966,7 @@
       <c r="U29" s="30">
         <v>1</v>
       </c>
-      <c r="V29" s="68">
+      <c r="V29" s="67">
         <v>1</v>
       </c>
     </row>
@@ -3042,7 +3034,7 @@
       <c r="U30" s="30">
         <v>1</v>
       </c>
-      <c r="V30" s="68">
+      <c r="V30" s="67">
         <v>1</v>
       </c>
     </row>
@@ -3110,7 +3102,7 @@
       <c r="U31" s="7">
         <v>1</v>
       </c>
-      <c r="V31" s="69">
+      <c r="V31" s="68">
         <v>1</v>
       </c>
     </row>
@@ -3178,7 +3170,7 @@
       <c r="U32" s="30">
         <v>1</v>
       </c>
-      <c r="V32" s="68">
+      <c r="V32" s="67">
         <v>1</v>
       </c>
     </row>
@@ -3246,7 +3238,7 @@
       <c r="U33" s="30">
         <v>0.99980000000000002</v>
       </c>
-      <c r="V33" s="68">
+      <c r="V33" s="67">
         <v>0.99980000000000002</v>
       </c>
     </row>
@@ -3314,7 +3306,7 @@
       <c r="U34" s="30">
         <v>0.99880000000000002</v>
       </c>
-      <c r="V34" s="68">
+      <c r="V34" s="67">
         <v>0.99880000000000002</v>
       </c>
     </row>
@@ -3382,7 +3374,7 @@
       <c r="U35" s="30">
         <v>0.99709999999999999</v>
       </c>
-      <c r="V35" s="68">
+      <c r="V35" s="67">
         <v>0.99709999999999999</v>
       </c>
     </row>
@@ -3450,7 +3442,7 @@
       <c r="U36" s="7">
         <v>0.99450000000000005</v>
       </c>
-      <c r="V36" s="69">
+      <c r="V36" s="68">
         <v>0.99450000000000005</v>
       </c>
     </row>
@@ -3518,7 +3510,7 @@
       <c r="U37" s="30">
         <v>0.99109999999999998</v>
       </c>
-      <c r="V37" s="68">
+      <c r="V37" s="67">
         <v>0.99109999999999998</v>
       </c>
     </row>
@@ -3586,7 +3578,7 @@
       <c r="U38" s="30">
         <v>0.98699999999999999</v>
       </c>
-      <c r="V38" s="68">
+      <c r="V38" s="67">
         <v>0.98699999999999999</v>
       </c>
     </row>
@@ -3654,7 +3646,7 @@
       <c r="U39" s="30">
         <v>0.98199999999999998</v>
       </c>
-      <c r="V39" s="68">
+      <c r="V39" s="67">
         <v>0.98199999999999998</v>
       </c>
     </row>
@@ -3722,7 +3714,7 @@
       <c r="U40" s="30">
         <v>0.97619999999999996</v>
       </c>
-      <c r="V40" s="68">
+      <c r="V40" s="67">
         <v>0.97619999999999996</v>
       </c>
     </row>
@@ -3790,7 +3782,7 @@
       <c r="U41" s="7">
         <v>0.96960000000000002</v>
       </c>
-      <c r="V41" s="69">
+      <c r="V41" s="68">
         <v>0.96960000000000002</v>
       </c>
     </row>
@@ -3858,7 +3850,7 @@
       <c r="U42" s="30">
         <v>0.96230000000000004</v>
       </c>
-      <c r="V42" s="68">
+      <c r="V42" s="67">
         <v>0.96230000000000004</v>
       </c>
     </row>
@@ -3926,7 +3918,7 @@
       <c r="U43" s="30">
         <v>0.95450000000000002</v>
       </c>
-      <c r="V43" s="68">
+      <c r="V43" s="67">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -3994,7 +3986,7 @@
       <c r="U44" s="30">
         <v>0.94669999999999999</v>
       </c>
-      <c r="V44" s="68">
+      <c r="V44" s="67">
         <v>0.94669999999999999</v>
       </c>
     </row>
@@ -4062,7 +4054,7 @@
       <c r="U45" s="30">
         <v>0.93889999999999996</v>
       </c>
-      <c r="V45" s="68">
+      <c r="V45" s="67">
         <v>0.93889999999999996</v>
       </c>
     </row>
@@ -4130,7 +4122,7 @@
       <c r="U46" s="7">
         <v>0.93110000000000004</v>
       </c>
-      <c r="V46" s="69">
+      <c r="V46" s="68">
         <v>0.93110000000000004</v>
       </c>
     </row>
@@ -4198,7 +4190,7 @@
       <c r="U47" s="30">
         <v>0.9234</v>
       </c>
-      <c r="V47" s="68">
+      <c r="V47" s="67">
         <v>0.9234</v>
       </c>
     </row>
@@ -4266,7 +4258,7 @@
       <c r="U48" s="30">
         <v>0.91559999999999997</v>
       </c>
-      <c r="V48" s="68">
+      <c r="V48" s="67">
         <v>0.91559999999999997</v>
       </c>
     </row>
@@ -4334,7 +4326,7 @@
       <c r="U49" s="30">
         <v>0.90780000000000005</v>
       </c>
-      <c r="V49" s="68">
+      <c r="V49" s="67">
         <v>0.90780000000000005</v>
       </c>
     </row>
@@ -4402,7 +4394,7 @@
       <c r="U50" s="30">
         <v>0.9</v>
       </c>
-      <c r="V50" s="68">
+      <c r="V50" s="67">
         <v>0.9</v>
       </c>
     </row>
@@ -4470,7 +4462,7 @@
       <c r="U51" s="7">
         <v>0.89219999999999999</v>
       </c>
-      <c r="V51" s="69">
+      <c r="V51" s="68">
         <v>0.89219999999999999</v>
       </c>
     </row>
@@ -4538,7 +4530,7 @@
       <c r="U52" s="30">
         <v>0.88449999999999995</v>
       </c>
-      <c r="V52" s="68">
+      <c r="V52" s="67">
         <v>0.88449999999999995</v>
       </c>
     </row>
@@ -4606,7 +4598,7 @@
       <c r="U53" s="30">
         <v>0.87670000000000003</v>
       </c>
-      <c r="V53" s="68">
+      <c r="V53" s="67">
         <v>0.87670000000000003</v>
       </c>
     </row>
@@ -4674,7 +4666,7 @@
       <c r="U54" s="30">
         <v>0.86890000000000001</v>
       </c>
-      <c r="V54" s="68">
+      <c r="V54" s="67">
         <v>0.86890000000000001</v>
       </c>
     </row>
@@ -4742,7 +4734,7 @@
       <c r="U55" s="30">
         <v>0.86109999999999998</v>
       </c>
-      <c r="V55" s="68">
+      <c r="V55" s="67">
         <v>0.86109999999999998</v>
       </c>
     </row>
@@ -4810,7 +4802,7 @@
       <c r="U56" s="7">
         <v>0.85329999999999995</v>
       </c>
-      <c r="V56" s="69">
+      <c r="V56" s="68">
         <v>0.85329999999999995</v>
       </c>
     </row>
@@ -4878,7 +4870,7 @@
       <c r="U57" s="30">
         <v>0.84560000000000002</v>
       </c>
-      <c r="V57" s="68">
+      <c r="V57" s="67">
         <v>0.84560000000000002</v>
       </c>
     </row>
@@ -4946,7 +4938,7 @@
       <c r="U58" s="30">
         <v>0.83779999999999999</v>
       </c>
-      <c r="V58" s="68">
+      <c r="V58" s="67">
         <v>0.83779999999999999</v>
       </c>
     </row>
@@ -5014,7 +5006,7 @@
       <c r="U59" s="30">
         <v>0.83</v>
       </c>
-      <c r="V59" s="68">
+      <c r="V59" s="67">
         <v>0.83</v>
       </c>
     </row>
@@ -5082,7 +5074,7 @@
       <c r="U60" s="30">
         <v>0.82220000000000004</v>
       </c>
-      <c r="V60" s="68">
+      <c r="V60" s="67">
         <v>0.82220000000000004</v>
       </c>
     </row>
@@ -5150,7 +5142,7 @@
       <c r="U61" s="7">
         <v>0.81440000000000001</v>
       </c>
-      <c r="V61" s="69">
+      <c r="V61" s="68">
         <v>0.81440000000000001</v>
       </c>
     </row>
@@ -5218,7 +5210,7 @@
       <c r="U62" s="30">
         <v>0.80669999999999997</v>
       </c>
-      <c r="V62" s="68">
+      <c r="V62" s="67">
         <v>0.80669999999999997</v>
       </c>
     </row>
@@ -5286,7 +5278,7 @@
       <c r="U63" s="30">
         <v>0.79890000000000005</v>
       </c>
-      <c r="V63" s="68">
+      <c r="V63" s="67">
         <v>0.79890000000000005</v>
       </c>
     </row>
@@ -5354,7 +5346,7 @@
       <c r="U64" s="30">
         <v>0.79110000000000003</v>
       </c>
-      <c r="V64" s="68">
+      <c r="V64" s="67">
         <v>0.79110000000000003</v>
       </c>
     </row>
@@ -5422,7 +5414,7 @@
       <c r="U65" s="30">
         <v>0.7833</v>
       </c>
-      <c r="V65" s="68">
+      <c r="V65" s="67">
         <v>0.7833</v>
       </c>
     </row>
@@ -5490,7 +5482,7 @@
       <c r="U66" s="7">
         <v>0.77549999999999997</v>
       </c>
-      <c r="V66" s="69">
+      <c r="V66" s="68">
         <v>0.77549999999999997</v>
       </c>
     </row>
@@ -5558,7 +5550,7 @@
       <c r="U67" s="30">
         <v>0.76780000000000004</v>
       </c>
-      <c r="V67" s="68">
+      <c r="V67" s="67">
         <v>0.76780000000000004</v>
       </c>
     </row>
@@ -5626,7 +5618,7 @@
       <c r="U68" s="30">
         <v>0.76</v>
       </c>
-      <c r="V68" s="68">
+      <c r="V68" s="67">
         <v>0.76</v>
       </c>
     </row>
@@ -5694,7 +5686,7 @@
       <c r="U69" s="30">
         <v>0.75219999999999998</v>
       </c>
-      <c r="V69" s="68">
+      <c r="V69" s="67">
         <v>0.75219999999999998</v>
       </c>
     </row>
@@ -5762,7 +5754,7 @@
       <c r="U70" s="30">
         <v>0.74439999999999995</v>
       </c>
-      <c r="V70" s="68">
+      <c r="V70" s="67">
         <v>0.74439999999999995</v>
       </c>
     </row>
@@ -5830,7 +5822,7 @@
       <c r="U71" s="7">
         <v>0.73660000000000003</v>
       </c>
-      <c r="V71" s="69">
+      <c r="V71" s="68">
         <v>0.73660000000000003</v>
       </c>
     </row>
@@ -5898,7 +5890,7 @@
       <c r="U72" s="30">
         <v>0.72860000000000003</v>
       </c>
-      <c r="V72" s="68">
+      <c r="V72" s="67">
         <v>0.72860000000000003</v>
       </c>
     </row>
@@ -5966,7 +5958,7 @@
       <c r="U73" s="30">
         <v>0.7198</v>
       </c>
-      <c r="V73" s="68">
+      <c r="V73" s="67">
         <v>0.7198</v>
       </c>
     </row>
@@ -6034,7 +6026,7 @@
       <c r="U74" s="30">
         <v>0.71040000000000003</v>
       </c>
-      <c r="V74" s="68">
+      <c r="V74" s="67">
         <v>0.71040000000000003</v>
       </c>
     </row>
@@ -6102,7 +6094,7 @@
       <c r="U75" s="30">
         <v>0.70020000000000004</v>
       </c>
-      <c r="V75" s="68">
+      <c r="V75" s="67">
         <v>0.70020000000000004</v>
       </c>
     </row>
@@ -6170,7 +6162,7 @@
       <c r="U76" s="7">
         <v>0.68930000000000002</v>
       </c>
-      <c r="V76" s="69">
+      <c r="V76" s="68">
         <v>0.68930000000000002</v>
       </c>
     </row>
@@ -6238,7 +6230,7 @@
       <c r="U77" s="30">
         <v>0.67779999999999996</v>
       </c>
-      <c r="V77" s="68">
+      <c r="V77" s="67">
         <v>0.67779999999999996</v>
       </c>
     </row>
@@ -6306,7 +6298,7 @@
       <c r="U78" s="30">
         <v>0.66549999999999998</v>
       </c>
-      <c r="V78" s="68">
+      <c r="V78" s="67">
         <v>0.66549999999999998</v>
       </c>
     </row>
@@ -6374,7 +6366,7 @@
       <c r="U79" s="30">
         <v>0.65259999999999996</v>
       </c>
-      <c r="V79" s="68">
+      <c r="V79" s="67">
         <v>0.65259999999999996</v>
       </c>
     </row>
@@ -6442,7 +6434,7 @@
       <c r="U80" s="30">
         <v>0.63890000000000002</v>
       </c>
-      <c r="V80" s="68">
+      <c r="V80" s="67">
         <v>0.63890000000000002</v>
       </c>
     </row>
@@ -6510,7 +6502,7 @@
       <c r="U81" s="7">
         <v>0.62450000000000006</v>
       </c>
-      <c r="V81" s="69">
+      <c r="V81" s="68">
         <v>0.62450000000000006</v>
       </c>
     </row>
@@ -6578,7 +6570,7 @@
       <c r="U82" s="30">
         <v>0.60950000000000004</v>
       </c>
-      <c r="V82" s="68">
+      <c r="V82" s="67">
         <v>0.60950000000000004</v>
       </c>
     </row>
@@ -6646,7 +6638,7 @@
       <c r="U83" s="30">
         <v>0.59370000000000001</v>
       </c>
-      <c r="V83" s="68">
+      <c r="V83" s="67">
         <v>0.59370000000000001</v>
       </c>
     </row>
@@ -6714,7 +6706,7 @@
       <c r="U84" s="30">
         <v>0.57730000000000004</v>
       </c>
-      <c r="V84" s="68">
+      <c r="V84" s="67">
         <v>0.57730000000000004</v>
       </c>
     </row>
@@ -6782,7 +6774,7 @@
       <c r="U85" s="30">
         <v>0.56010000000000004</v>
       </c>
-      <c r="V85" s="68">
+      <c r="V85" s="67">
         <v>0.56010000000000004</v>
       </c>
     </row>
@@ -6850,7 +6842,7 @@
       <c r="U86" s="7">
         <v>0.54220000000000002</v>
       </c>
-      <c r="V86" s="69">
+      <c r="V86" s="68">
         <v>0.54220000000000002</v>
       </c>
     </row>
@@ -6918,7 +6910,7 @@
       <c r="U87" s="30">
         <v>0.52370000000000005</v>
       </c>
-      <c r="V87" s="68">
+      <c r="V87" s="67">
         <v>0.52370000000000005</v>
       </c>
     </row>
@@ -6986,7 +6978,7 @@
       <c r="U88" s="30">
         <v>0.50439999999999996</v>
       </c>
-      <c r="V88" s="68">
+      <c r="V88" s="67">
         <v>0.50439999999999996</v>
       </c>
     </row>
@@ -7054,7 +7046,7 @@
       <c r="U89" s="30">
         <v>0.48449999999999999</v>
       </c>
-      <c r="V89" s="68">
+      <c r="V89" s="67">
         <v>0.48449999999999999</v>
       </c>
     </row>
@@ -7122,7 +7114,7 @@
       <c r="U90" s="30">
         <v>0.46379999999999999</v>
       </c>
-      <c r="V90" s="68">
+      <c r="V90" s="67">
         <v>0.46379999999999999</v>
       </c>
     </row>
@@ -7190,7 +7182,7 @@
       <c r="U91" s="7">
         <v>0.44240000000000002</v>
       </c>
-      <c r="V91" s="69">
+      <c r="V91" s="68">
         <v>0.44240000000000002</v>
       </c>
     </row>
@@ -7258,7 +7250,7 @@
       <c r="U92" s="30">
         <v>0.4204</v>
       </c>
-      <c r="V92" s="68">
+      <c r="V92" s="67">
         <v>0.4204</v>
       </c>
     </row>
@@ -7326,7 +7318,7 @@
       <c r="U93" s="30">
         <v>0.39760000000000001</v>
       </c>
-      <c r="V93" s="68">
+      <c r="V93" s="67">
         <v>0.39760000000000001</v>
       </c>
     </row>
@@ -7394,7 +7386,7 @@
       <c r="U94" s="30">
         <v>0.37419999999999998</v>
       </c>
-      <c r="V94" s="68">
+      <c r="V94" s="67">
         <v>0.37419999999999998</v>
       </c>
     </row>
@@ -7462,7 +7454,7 @@
       <c r="U95" s="30">
         <v>0.35</v>
       </c>
-      <c r="V95" s="68">
+      <c r="V95" s="67">
         <v>0.35</v>
       </c>
     </row>
@@ -7530,7 +7522,7 @@
       <c r="U96" s="7">
         <v>0.3251</v>
       </c>
-      <c r="V96" s="69">
+      <c r="V96" s="68">
         <v>0.3251</v>
       </c>
     </row>
@@ -7598,7 +7590,7 @@
       <c r="U97" s="30">
         <v>0.29959999999999998</v>
       </c>
-      <c r="V97" s="68">
+      <c r="V97" s="67">
         <v>0.29959999999999998</v>
       </c>
     </row>
@@ -7666,7 +7658,7 @@
       <c r="U98" s="30">
         <v>0.27329999999999999</v>
       </c>
-      <c r="V98" s="68">
+      <c r="V98" s="67">
         <v>0.27329999999999999</v>
       </c>
     </row>
@@ -7734,7 +7726,7 @@
       <c r="U99" s="30">
         <v>0.24640000000000001</v>
       </c>
-      <c r="V99" s="68">
+      <c r="V99" s="67">
         <v>0.24640000000000001</v>
       </c>
     </row>
@@ -7802,7 +7794,7 @@
       <c r="U100" s="30">
         <v>0.21870000000000001</v>
       </c>
-      <c r="V100" s="68">
+      <c r="V100" s="67">
         <v>0.21870000000000001</v>
       </c>
     </row>
@@ -7870,7 +7862,7 @@
       <c r="U101" s="7">
         <v>0.1903</v>
       </c>
-      <c r="V101" s="70">
+      <c r="V101" s="69">
         <v>0.1903</v>
       </c>
     </row>
@@ -8070,7 +8062,7 @@
   <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8168,7 +8160,7 @@
       <c r="U2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="54" t="s">
+      <c r="V2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8236,7 +8228,7 @@
       <c r="U3" s="2">
         <v>39850</v>
       </c>
-      <c r="V3" s="55">
+      <c r="V3" s="54">
         <v>52800.000000000007</v>
       </c>
     </row>
@@ -8304,7 +8296,7 @@
       <c r="U4" s="3">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V4" s="56">
+      <c r="V4" s="55">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -8372,7 +8364,7 @@
       <c r="U5" s="8">
         <v>65803</v>
       </c>
-      <c r="V5" s="57">
+      <c r="V5" s="56">
         <v>87186</v>
       </c>
     </row>
@@ -8440,7 +8432,7 @@
       <c r="U6" s="2">
         <v>60415</v>
       </c>
-      <c r="V6" s="55">
+      <c r="V6" s="54">
         <v>80049</v>
       </c>
     </row>
@@ -8508,7 +8500,7 @@
       <c r="U7" s="2">
         <v>56158</v>
       </c>
-      <c r="V7" s="55">
+      <c r="V7" s="54">
         <v>74408</v>
       </c>
     </row>
@@ -8576,7 +8568,7 @@
       <c r="U8" s="2">
         <v>52740</v>
       </c>
-      <c r="V8" s="55">
+      <c r="V8" s="54">
         <v>69878</v>
       </c>
     </row>
@@ -8644,7 +8636,7 @@
       <c r="U9" s="2">
         <v>49962</v>
       </c>
-      <c r="V9" s="55">
+      <c r="V9" s="54">
         <v>66199</v>
       </c>
     </row>
@@ -8712,7 +8704,7 @@
       <c r="U10" s="9">
         <v>47690</v>
       </c>
-      <c r="V10" s="58">
+      <c r="V10" s="57">
         <v>63188</v>
       </c>
     </row>
@@ -8780,7 +8772,7 @@
       <c r="U11" s="2">
         <v>45826</v>
       </c>
-      <c r="V11" s="55">
+      <c r="V11" s="54">
         <v>60718</v>
       </c>
     </row>
@@ -8848,7 +8840,7 @@
       <c r="U12" s="2">
         <v>44297</v>
       </c>
-      <c r="V12" s="55">
+      <c r="V12" s="54">
         <v>58693</v>
       </c>
     </row>
@@ -8916,7 +8908,7 @@
       <c r="U13" s="2">
         <v>43053</v>
       </c>
-      <c r="V13" s="55">
+      <c r="V13" s="54">
         <v>57044</v>
       </c>
     </row>
@@ -8984,7 +8976,7 @@
       <c r="U14" s="2">
         <v>42054</v>
       </c>
-      <c r="V14" s="55">
+      <c r="V14" s="54">
         <v>55720</v>
       </c>
     </row>
@@ -9052,7 +9044,7 @@
       <c r="U15" s="9">
         <v>41270</v>
       </c>
-      <c r="V15" s="58">
+      <c r="V15" s="57">
         <v>54681</v>
       </c>
     </row>
@@ -9120,7 +9112,7 @@
       <c r="U16" s="2">
         <v>40680</v>
       </c>
-      <c r="V16" s="55">
+      <c r="V16" s="54">
         <v>53900</v>
       </c>
     </row>
@@ -9188,7 +9180,7 @@
       <c r="U17" s="2">
         <v>40188</v>
       </c>
-      <c r="V17" s="55">
+      <c r="V17" s="54">
         <v>53247</v>
       </c>
     </row>
@@ -9256,7 +9248,7 @@
       <c r="U18" s="2">
         <v>39878</v>
       </c>
-      <c r="V18" s="55">
+      <c r="V18" s="54">
         <v>52837</v>
       </c>
     </row>
@@ -9324,7 +9316,7 @@
       <c r="U19" s="2">
         <v>39850</v>
       </c>
-      <c r="V19" s="55">
+      <c r="V19" s="54">
         <v>52800</v>
       </c>
     </row>
@@ -9392,7 +9384,7 @@
       <c r="U20" s="9">
         <v>39850</v>
       </c>
-      <c r="V20" s="58">
+      <c r="V20" s="57">
         <v>52800</v>
       </c>
     </row>
@@ -9460,7 +9452,7 @@
       <c r="U21" s="2">
         <v>39850</v>
       </c>
-      <c r="V21" s="55">
+      <c r="V21" s="54">
         <v>52800</v>
       </c>
     </row>
@@ -9528,7 +9520,7 @@
       <c r="U22" s="2">
         <v>39850</v>
       </c>
-      <c r="V22" s="55">
+      <c r="V22" s="54">
         <v>52800</v>
       </c>
     </row>
@@ -9596,7 +9588,7 @@
       <c r="U23" s="2">
         <v>39850</v>
       </c>
-      <c r="V23" s="55">
+      <c r="V23" s="54">
         <v>52800</v>
       </c>
     </row>
@@ -9664,7 +9656,7 @@
       <c r="U24" s="2">
         <v>39850</v>
       </c>
-      <c r="V24" s="55">
+      <c r="V24" s="54">
         <v>52800</v>
       </c>
     </row>
@@ -9732,7 +9724,7 @@
       <c r="U25" s="9">
         <v>39850</v>
       </c>
-      <c r="V25" s="58">
+      <c r="V25" s="57">
         <v>52800</v>
       </c>
     </row>
@@ -9800,7 +9792,7 @@
       <c r="U26" s="2">
         <v>39850</v>
       </c>
-      <c r="V26" s="55">
+      <c r="V26" s="54">
         <v>52800</v>
       </c>
     </row>
@@ -9868,7 +9860,7 @@
       <c r="U27" s="2">
         <v>39850</v>
       </c>
-      <c r="V27" s="55">
+      <c r="V27" s="54">
         <v>52800</v>
       </c>
     </row>
@@ -9936,7 +9928,7 @@
       <c r="U28" s="2">
         <v>39850</v>
       </c>
-      <c r="V28" s="55">
+      <c r="V28" s="54">
         <v>52800</v>
       </c>
     </row>
@@ -10004,7 +9996,7 @@
       <c r="U29" s="2">
         <v>39850</v>
       </c>
-      <c r="V29" s="55">
+      <c r="V29" s="54">
         <v>52800</v>
       </c>
     </row>
@@ -10072,7 +10064,7 @@
       <c r="U30" s="9">
         <v>39850</v>
       </c>
-      <c r="V30" s="58">
+      <c r="V30" s="57">
         <v>52800</v>
       </c>
     </row>
@@ -10140,7 +10132,7 @@
       <c r="U31" s="2">
         <v>39850</v>
       </c>
-      <c r="V31" s="55">
+      <c r="V31" s="54">
         <v>52800</v>
       </c>
     </row>
@@ -10208,7 +10200,7 @@
       <c r="U32" s="2">
         <v>39858</v>
       </c>
-      <c r="V32" s="55">
+      <c r="V32" s="54">
         <v>52811</v>
       </c>
     </row>
@@ -10276,7 +10268,7 @@
       <c r="U33" s="2">
         <v>39898</v>
       </c>
-      <c r="V33" s="55">
+      <c r="V33" s="54">
         <v>52863</v>
       </c>
     </row>
@@ -10344,7 +10336,7 @@
       <c r="U34" s="2">
         <v>39966</v>
       </c>
-      <c r="V34" s="55">
+      <c r="V34" s="54">
         <v>52954</v>
       </c>
     </row>
@@ -10412,7 +10404,7 @@
       <c r="U35" s="9">
         <v>40070</v>
       </c>
-      <c r="V35" s="58">
+      <c r="V35" s="57">
         <v>53092</v>
       </c>
     </row>
@@ -10480,7 +10472,7 @@
       <c r="U36" s="2">
         <v>40208</v>
       </c>
-      <c r="V36" s="55">
+      <c r="V36" s="54">
         <v>53274</v>
       </c>
     </row>
@@ -10548,7 +10540,7 @@
       <c r="U37" s="2">
         <v>40375</v>
       </c>
-      <c r="V37" s="55">
+      <c r="V37" s="54">
         <v>53495</v>
       </c>
     </row>
@@ -10616,7 +10608,7 @@
       <c r="U38" s="2">
         <v>40580</v>
       </c>
-      <c r="V38" s="55">
+      <c r="V38" s="54">
         <v>53768</v>
       </c>
     </row>
@@ -10684,7 +10676,7 @@
       <c r="U39" s="2">
         <v>40822</v>
       </c>
-      <c r="V39" s="55">
+      <c r="V39" s="54">
         <v>54087</v>
       </c>
     </row>
@@ -10752,7 +10744,7 @@
       <c r="U40" s="9">
         <v>41099</v>
       </c>
-      <c r="V40" s="58">
+      <c r="V40" s="57">
         <v>54455</v>
       </c>
     </row>
@@ -10820,7 +10812,7 @@
       <c r="U41" s="2">
         <v>41411</v>
       </c>
-      <c r="V41" s="55">
+      <c r="V41" s="54">
         <v>54869</v>
       </c>
     </row>
@@ -10888,7 +10880,7 @@
       <c r="U42" s="2">
         <v>41750</v>
       </c>
-      <c r="V42" s="55">
+      <c r="V42" s="54">
         <v>55317</v>
       </c>
     </row>
@@ -10956,7 +10948,7 @@
       <c r="U43" s="2">
         <v>42094</v>
       </c>
-      <c r="V43" s="55">
+      <c r="V43" s="54">
         <v>55773</v>
       </c>
     </row>
@@ -11024,7 +11016,7 @@
       <c r="U44" s="2">
         <v>42443</v>
       </c>
-      <c r="V44" s="55">
+      <c r="V44" s="54">
         <v>56236</v>
       </c>
     </row>
@@ -11092,7 +11084,7 @@
       <c r="U45" s="9">
         <v>42799</v>
       </c>
-      <c r="V45" s="58">
+      <c r="V45" s="57">
         <v>56707</v>
       </c>
     </row>
@@ -11160,7 +11152,7 @@
       <c r="U46" s="2">
         <v>43156</v>
       </c>
-      <c r="V46" s="55">
+      <c r="V46" s="54">
         <v>57180</v>
       </c>
     </row>
@@ -11228,7 +11220,7 @@
       <c r="U47" s="2">
         <v>43523</v>
       </c>
-      <c r="V47" s="55">
+      <c r="V47" s="54">
         <v>57667</v>
       </c>
     </row>
@@ -11296,7 +11288,7 @@
       <c r="U48" s="2">
         <v>43897</v>
       </c>
-      <c r="V48" s="55">
+      <c r="V48" s="54">
         <v>58163</v>
       </c>
     </row>
@@ -11364,7 +11356,7 @@
       <c r="U49" s="2">
         <v>44278</v>
       </c>
-      <c r="V49" s="55">
+      <c r="V49" s="54">
         <v>58667</v>
       </c>
     </row>
@@ -11432,7 +11424,7 @@
       <c r="U50" s="9">
         <v>44665</v>
       </c>
-      <c r="V50" s="58">
+      <c r="V50" s="57">
         <v>59180</v>
       </c>
     </row>
@@ -11500,7 +11492,7 @@
       <c r="U51" s="2">
         <v>45054</v>
       </c>
-      <c r="V51" s="55">
+      <c r="V51" s="54">
         <v>59695</v>
       </c>
     </row>
@@ -11568,7 +11560,7 @@
       <c r="U52" s="2">
         <v>45455</v>
       </c>
-      <c r="V52" s="55">
+      <c r="V52" s="54">
         <v>60226</v>
       </c>
     </row>
@@ -11636,7 +11628,7 @@
       <c r="U53" s="2">
         <v>45863</v>
       </c>
-      <c r="V53" s="55">
+      <c r="V53" s="54">
         <v>60766</v>
       </c>
     </row>
@@ -11704,7 +11696,7 @@
       <c r="U54" s="2">
         <v>46278</v>
       </c>
-      <c r="V54" s="55">
+      <c r="V54" s="54">
         <v>61317</v>
       </c>
     </row>
@@ -11772,7 +11764,7 @@
       <c r="U55" s="9">
         <v>46701</v>
       </c>
-      <c r="V55" s="58">
+      <c r="V55" s="57">
         <v>61877</v>
       </c>
     </row>
@@ -11840,7 +11832,7 @@
       <c r="U56" s="2">
         <v>47126</v>
       </c>
-      <c r="V56" s="55">
+      <c r="V56" s="54">
         <v>62441</v>
       </c>
     </row>
@@ -11908,7 +11900,7 @@
       <c r="U57" s="2">
         <v>47565</v>
       </c>
-      <c r="V57" s="55">
+      <c r="V57" s="54">
         <v>63022</v>
       </c>
     </row>
@@ -11976,7 +11968,7 @@
       <c r="U58" s="2">
         <v>48012</v>
       </c>
-      <c r="V58" s="55">
+      <c r="V58" s="54">
         <v>63614</v>
       </c>
     </row>
@@ -12044,7 +12036,7 @@
       <c r="U59" s="2">
         <v>48468</v>
       </c>
-      <c r="V59" s="55">
+      <c r="V59" s="54">
         <v>64218</v>
       </c>
     </row>
@@ -12112,7 +12104,7 @@
       <c r="U60" s="9">
         <v>48932</v>
       </c>
-      <c r="V60" s="58">
+      <c r="V60" s="57">
         <v>64833</v>
       </c>
     </row>
@@ -12180,7 +12172,7 @@
       <c r="U61" s="2">
         <v>49399</v>
       </c>
-      <c r="V61" s="55">
+      <c r="V61" s="54">
         <v>65452</v>
       </c>
     </row>
@@ -12248,7 +12240,7 @@
       <c r="U62" s="2">
         <v>49881</v>
       </c>
-      <c r="V62" s="55">
+      <c r="V62" s="54">
         <v>66091</v>
       </c>
     </row>
@@ -12316,7 +12308,7 @@
       <c r="U63" s="2">
         <v>50373</v>
       </c>
-      <c r="V63" s="55">
+      <c r="V63" s="54">
         <v>66743</v>
       </c>
     </row>
@@ -12384,7 +12376,7 @@
       <c r="U64" s="2">
         <v>50875</v>
       </c>
-      <c r="V64" s="55">
+      <c r="V64" s="54">
         <v>67407</v>
       </c>
     </row>
@@ -12452,7 +12444,7 @@
       <c r="U65" s="9">
         <v>51386</v>
       </c>
-      <c r="V65" s="58">
+      <c r="V65" s="57">
         <v>68085</v>
       </c>
     </row>
@@ -12520,7 +12512,7 @@
       <c r="U66" s="2">
         <v>51902</v>
       </c>
-      <c r="V66" s="55">
+      <c r="V66" s="54">
         <v>68768</v>
       </c>
     </row>
@@ -12588,7 +12580,7 @@
       <c r="U67" s="2">
         <v>52434</v>
       </c>
-      <c r="V67" s="55">
+      <c r="V67" s="54">
         <v>69474</v>
       </c>
     </row>
@@ -12656,7 +12648,7 @@
       <c r="U68" s="2">
         <v>52978</v>
       </c>
-      <c r="V68" s="55">
+      <c r="V68" s="54">
         <v>70194</v>
       </c>
     </row>
@@ -12724,7 +12716,7 @@
       <c r="U69" s="2">
         <v>53533</v>
       </c>
-      <c r="V69" s="55">
+      <c r="V69" s="54">
         <v>70930</v>
       </c>
     </row>
@@ -12792,7 +12784,7 @@
       <c r="U70" s="9">
         <v>54100</v>
       </c>
-      <c r="V70" s="58">
+      <c r="V70" s="57">
         <v>71681</v>
       </c>
     </row>
@@ -12860,7 +12852,7 @@
       <c r="U71" s="2">
         <v>54694</v>
       </c>
-      <c r="V71" s="55">
+      <c r="V71" s="54">
         <v>72468</v>
       </c>
     </row>
@@ -12928,7 +12920,7 @@
       <c r="U72" s="2">
         <v>55363</v>
       </c>
-      <c r="V72" s="55">
+      <c r="V72" s="54">
         <v>73354</v>
       </c>
     </row>
@@ -12996,7 +12988,7 @@
       <c r="U73" s="2">
         <v>56095</v>
       </c>
-      <c r="V73" s="55">
+      <c r="V73" s="54">
         <v>74324</v>
       </c>
     </row>
@@ -13064,7 +13056,7 @@
       <c r="U74" s="2">
         <v>56912</v>
       </c>
-      <c r="V74" s="55">
+      <c r="V74" s="54">
         <v>75407</v>
       </c>
     </row>
@@ -13132,7 +13124,7 @@
       <c r="U75" s="9">
         <v>57812</v>
       </c>
-      <c r="V75" s="58">
+      <c r="V75" s="57">
         <v>76599</v>
       </c>
     </row>
@@ -13200,7 +13192,7 @@
       <c r="U76" s="2">
         <v>58793</v>
       </c>
-      <c r="V76" s="55">
+      <c r="V76" s="54">
         <v>77899</v>
       </c>
     </row>
@@ -13268,7 +13260,7 @@
       <c r="U77" s="2">
         <v>59880</v>
       </c>
-      <c r="V77" s="55">
+      <c r="V77" s="54">
         <v>79339</v>
       </c>
     </row>
@@ -13336,7 +13328,7 @@
       <c r="U78" s="2">
         <v>61063</v>
       </c>
-      <c r="V78" s="55">
+      <c r="V78" s="54">
         <v>80907</v>
       </c>
     </row>
@@ -13404,7 +13396,7 @@
       <c r="U79" s="2">
         <v>62373</v>
       </c>
-      <c r="V79" s="55">
+      <c r="V79" s="54">
         <v>82642</v>
       </c>
     </row>
@@ -13472,7 +13464,7 @@
       <c r="U80" s="9">
         <v>63811</v>
       </c>
-      <c r="V80" s="58">
+      <c r="V80" s="57">
         <v>84548</v>
       </c>
     </row>
@@ -13540,7 +13532,7 @@
       <c r="U81" s="2">
         <v>65381</v>
       </c>
-      <c r="V81" s="55">
+      <c r="V81" s="54">
         <v>86628</v>
       </c>
     </row>
@@ -13608,7 +13600,7 @@
       <c r="U82" s="2">
         <v>67121</v>
       </c>
-      <c r="V82" s="55">
+      <c r="V82" s="54">
         <v>88934</v>
       </c>
     </row>
@@ -13676,7 +13668,7 @@
       <c r="U83" s="2">
         <v>69028</v>
       </c>
-      <c r="V83" s="55">
+      <c r="V83" s="54">
         <v>91460</v>
       </c>
     </row>
@@ -13744,7 +13736,7 @@
       <c r="U84" s="2">
         <v>71148</v>
       </c>
-      <c r="V84" s="55">
+      <c r="V84" s="54">
         <v>94269</v>
       </c>
     </row>
@@ -13812,7 +13804,7 @@
       <c r="U85" s="9">
         <v>73497</v>
       </c>
-      <c r="V85" s="58">
+      <c r="V85" s="57">
         <v>97381</v>
       </c>
     </row>
@@ -13880,7 +13872,7 @@
       <c r="U86" s="2">
         <v>76093</v>
       </c>
-      <c r="V86" s="55">
+      <c r="V86" s="54">
         <v>100821</v>
       </c>
     </row>
@@ -13948,7 +13940,7 @@
       <c r="U87" s="2">
         <v>79005</v>
       </c>
-      <c r="V87" s="55">
+      <c r="V87" s="54">
         <v>104679</v>
       </c>
     </row>
@@ -14016,7 +14008,7 @@
       <c r="U88" s="2">
         <v>82250</v>
       </c>
-      <c r="V88" s="55">
+      <c r="V88" s="54">
         <v>108978</v>
       </c>
     </row>
@@ -14084,7 +14076,7 @@
       <c r="U89" s="2">
         <v>85921</v>
       </c>
-      <c r="V89" s="55">
+      <c r="V89" s="54">
         <v>113842</v>
       </c>
     </row>
@@ -14152,7 +14144,7 @@
       <c r="U90" s="9">
         <v>90077</v>
       </c>
-      <c r="V90" s="58">
+      <c r="V90" s="57">
         <v>119349</v>
       </c>
     </row>
@@ -14220,7 +14212,7 @@
       <c r="U91" s="2">
         <v>94791</v>
       </c>
-      <c r="V91" s="55">
+      <c r="V91" s="54">
         <v>125595</v>
       </c>
     </row>
@@ -14288,7 +14280,7 @@
       <c r="U92" s="2">
         <v>100226</v>
       </c>
-      <c r="V92" s="55">
+      <c r="V92" s="54">
         <v>132797</v>
       </c>
     </row>
@@ -14356,7 +14348,7 @@
       <c r="U93" s="2">
         <v>106494</v>
       </c>
-      <c r="V93" s="55">
+      <c r="V93" s="54">
         <v>141101</v>
       </c>
     </row>
@@ -14424,7 +14416,7 @@
       <c r="U94" s="2">
         <v>113857</v>
       </c>
-      <c r="V94" s="55">
+      <c r="V94" s="54">
         <v>150857</v>
       </c>
     </row>
@@ -14492,7 +14484,7 @@
       <c r="U95" s="9">
         <v>122578</v>
       </c>
-      <c r="V95" s="58">
+      <c r="V95" s="57">
         <v>162412</v>
       </c>
     </row>
@@ -14560,7 +14552,7 @@
       <c r="U96" s="2">
         <v>133011</v>
       </c>
-      <c r="V96" s="55">
+      <c r="V96" s="54">
         <v>176235</v>
       </c>
     </row>
@@ -14628,7 +14620,7 @@
       <c r="U97" s="2">
         <v>145810</v>
       </c>
-      <c r="V97" s="55">
+      <c r="V97" s="54">
         <v>193194</v>
       </c>
     </row>
@@ -14696,7 +14688,7 @@
       <c r="U98" s="2">
         <v>161729</v>
       </c>
-      <c r="V98" s="55">
+      <c r="V98" s="54">
         <v>214286</v>
       </c>
     </row>
@@ -14764,7 +14756,7 @@
       <c r="U99" s="2">
         <v>182213</v>
       </c>
-      <c r="V99" s="55">
+      <c r="V99" s="54">
         <v>241427</v>
       </c>
     </row>
@@ -14772,67 +14764,67 @@
       <c r="A100" s="33">
         <v>100</v>
       </c>
-      <c r="B100" s="52">
+      <c r="B100" s="51">
         <v>1112</v>
       </c>
-      <c r="C100" s="53">
+      <c r="C100" s="52">
         <v>3739</v>
       </c>
-      <c r="D100" s="53">
+      <c r="D100" s="52">
         <v>4516</v>
       </c>
-      <c r="E100" s="53">
+      <c r="E100" s="52">
         <v>4843</v>
       </c>
-      <c r="F100" s="53">
+      <c r="F100" s="52">
         <v>6014</v>
       </c>
-      <c r="G100" s="53">
+      <c r="G100" s="52">
         <v>6045</v>
       </c>
-      <c r="H100" s="53">
+      <c r="H100" s="52">
         <v>7468</v>
       </c>
-      <c r="I100" s="53">
+      <c r="I100" s="52">
         <v>9236</v>
       </c>
-      <c r="J100" s="53">
+      <c r="J100" s="52">
         <v>11971</v>
       </c>
-      <c r="K100" s="53">
+      <c r="K100" s="52">
         <v>12995</v>
       </c>
-      <c r="L100" s="53">
+      <c r="L100" s="52">
         <v>16699</v>
       </c>
-      <c r="M100" s="53">
+      <c r="M100" s="52">
         <v>17733</v>
       </c>
-      <c r="N100" s="53">
+      <c r="N100" s="52">
         <v>22157</v>
       </c>
-      <c r="O100" s="53">
+      <c r="O100" s="52">
         <v>26939</v>
       </c>
-      <c r="P100" s="53">
+      <c r="P100" s="52">
         <v>38355</v>
       </c>
-      <c r="Q100" s="53">
+      <c r="Q100" s="52">
         <v>47136</v>
       </c>
-      <c r="R100" s="53">
+      <c r="R100" s="52">
         <v>84498</v>
       </c>
-      <c r="S100" s="53">
+      <c r="S100" s="52">
         <v>112244</v>
       </c>
-      <c r="T100" s="53">
+      <c r="T100" s="52">
         <v>190751</v>
       </c>
-      <c r="U100" s="53">
+      <c r="U100" s="52">
         <v>209406</v>
       </c>
-      <c r="V100" s="59">
+      <c r="V100" s="58">
         <v>277457</v>
       </c>
     </row>
@@ -14867,7 +14859,7 @@
       </c>
     </row>
     <row r="107" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="51" t="s">
+      <c r="A107" s="38" t="s">
         <v>34</v>
       </c>
     </row>
@@ -14884,8 +14876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14983,7 +14975,7 @@
       <c r="U2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="60" t="s">
+      <c r="V2" s="59" t="s">
         <v>20</v>
       </c>
     </row>
@@ -15051,7 +15043,7 @@
       <c r="U3" s="2">
         <v>39850</v>
       </c>
-      <c r="V3" s="55">
+      <c r="V3" s="54">
         <v>52800.000000000007</v>
       </c>
     </row>
@@ -15119,7 +15111,7 @@
       <c r="U4" s="3">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V4" s="56">
+      <c r="V4" s="55">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -15187,7 +15179,7 @@
       <c r="U5" s="10">
         <v>0.7616087962962963</v>
       </c>
-      <c r="V5" s="61">
+      <c r="V5" s="60">
         <v>1.0090972222222223</v>
       </c>
     </row>
@@ -15255,7 +15247,7 @@
       <c r="U6" s="3">
         <v>0.69924768518518521</v>
       </c>
-      <c r="V6" s="56">
+      <c r="V6" s="55">
         <v>0.9264930555555555</v>
       </c>
     </row>
@@ -15323,7 +15315,7 @@
       <c r="U7" s="3">
         <v>0.64997685185185183</v>
       </c>
-      <c r="V7" s="56">
+      <c r="V7" s="55">
         <v>0.86120370370370369</v>
       </c>
     </row>
@@ -15391,7 +15383,7 @@
       <c r="U8" s="3">
         <v>0.61041666666666672</v>
       </c>
-      <c r="V8" s="56">
+      <c r="V8" s="55">
         <v>0.80877314814814816</v>
       </c>
     </row>
@@ -15459,7 +15451,7 @@
       <c r="U9" s="3">
         <v>0.57826388888888891</v>
       </c>
-      <c r="V9" s="56">
+      <c r="V9" s="55">
         <v>0.76619212962962968</v>
       </c>
     </row>
@@ -15527,7 +15519,7 @@
       <c r="U10" s="11">
         <v>0.55196759259259254</v>
       </c>
-      <c r="V10" s="62">
+      <c r="V10" s="61">
         <v>0.7313425925925926</v>
       </c>
     </row>
@@ -15595,7 +15587,7 @@
       <c r="U11" s="3">
         <v>0.53039351851851857</v>
       </c>
-      <c r="V11" s="56">
+      <c r="V11" s="55">
         <v>0.70275462962962965</v>
       </c>
     </row>
@@ -15663,7 +15655,7 @@
       <c r="U12" s="3">
         <v>0.51269675925925928</v>
       </c>
-      <c r="V12" s="56">
+      <c r="V12" s="55">
         <v>0.67931712962962965</v>
       </c>
     </row>
@@ -15731,7 +15723,7 @@
       <c r="U13" s="3">
         <v>0.49829861111111112</v>
       </c>
-      <c r="V13" s="56">
+      <c r="V13" s="55">
         <v>0.66023148148148147</v>
       </c>
     </row>
@@ -15799,7 +15791,7 @@
       <c r="U14" s="3">
         <v>0.48673611111111109</v>
       </c>
-      <c r="V14" s="56">
+      <c r="V14" s="55">
         <v>0.64490740740740737</v>
       </c>
     </row>
@@ -15867,7 +15859,7 @@
       <c r="U15" s="11">
         <v>0.47766203703703702</v>
       </c>
-      <c r="V15" s="62">
+      <c r="V15" s="61">
         <v>0.63288194444444446</v>
       </c>
     </row>
@@ -15935,7 +15927,7 @@
       <c r="U16" s="3">
         <v>0.47083333333333333</v>
       </c>
-      <c r="V16" s="56">
+      <c r="V16" s="55">
         <v>0.62384259259259256</v>
       </c>
     </row>
@@ -16003,7 +15995,7 @@
       <c r="U17" s="3">
         <v>0.46513888888888888</v>
       </c>
-      <c r="V17" s="56">
+      <c r="V17" s="55">
         <v>0.61628472222222219</v>
       </c>
     </row>
@@ -16071,7 +16063,7 @@
       <c r="U18" s="3">
         <v>0.46155092592592595</v>
       </c>
-      <c r="V18" s="56">
+      <c r="V18" s="55">
         <v>0.61153935185185182</v>
       </c>
     </row>
@@ -16139,7 +16131,7 @@
       <c r="U19" s="3">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V19" s="56">
+      <c r="V19" s="55">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -16207,7 +16199,7 @@
       <c r="U20" s="11">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V20" s="62">
+      <c r="V20" s="61">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -16275,7 +16267,7 @@
       <c r="U21" s="3">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V21" s="56">
+      <c r="V21" s="55">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -16343,7 +16335,7 @@
       <c r="U22" s="3">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V22" s="56">
+      <c r="V22" s="55">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -16411,7 +16403,7 @@
       <c r="U23" s="3">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V23" s="56">
+      <c r="V23" s="55">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -16479,7 +16471,7 @@
       <c r="U24" s="3">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V24" s="56">
+      <c r="V24" s="55">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -16547,7 +16539,7 @@
       <c r="U25" s="11">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V25" s="62">
+      <c r="V25" s="61">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -16615,7 +16607,7 @@
       <c r="U26" s="3">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V26" s="56">
+      <c r="V26" s="55">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -16683,7 +16675,7 @@
       <c r="U27" s="3">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V27" s="56">
+      <c r="V27" s="55">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -16751,7 +16743,7 @@
       <c r="U28" s="3">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V28" s="56">
+      <c r="V28" s="55">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -16819,7 +16811,7 @@
       <c r="U29" s="3">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V29" s="56">
+      <c r="V29" s="55">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -16887,7 +16879,7 @@
       <c r="U30" s="11">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V30" s="62">
+      <c r="V30" s="61">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -16955,7 +16947,7 @@
       <c r="U31" s="3">
         <v>0.46122685185185186</v>
       </c>
-      <c r="V31" s="56">
+      <c r="V31" s="55">
         <v>0.61111111111111116</v>
       </c>
     </row>
@@ -17023,7 +17015,7 @@
       <c r="U32" s="3">
         <v>0.46131944444444445</v>
       </c>
-      <c r="V32" s="56">
+      <c r="V32" s="55">
         <v>0.61123842592592592</v>
       </c>
     </row>
@@ -17091,7 +17083,7 @@
       <c r="U33" s="3">
         <v>0.46178240740740739</v>
       </c>
-      <c r="V33" s="56">
+      <c r="V33" s="55">
         <v>0.61184027777777783</v>
       </c>
     </row>
@@ -17159,7 +17151,7 @@
       <c r="U34" s="3">
         <v>0.46256944444444442</v>
       </c>
-      <c r="V34" s="56">
+      <c r="V34" s="55">
         <v>0.61289351851851848</v>
       </c>
     </row>
@@ -17227,7 +17219,7 @@
       <c r="U35" s="11">
         <v>0.46377314814814813</v>
       </c>
-      <c r="V35" s="62">
+      <c r="V35" s="61">
         <v>0.61449074074074073</v>
       </c>
     </row>
@@ -17295,7 +17287,7 @@
       <c r="U36" s="3">
         <v>0.46537037037037038</v>
       </c>
-      <c r="V36" s="56">
+      <c r="V36" s="55">
         <v>0.61659722222222224</v>
       </c>
     </row>
@@ -17363,7 +17355,7 @@
       <c r="U37" s="3">
         <v>0.46730324074074076</v>
       </c>
-      <c r="V37" s="56">
+      <c r="V37" s="55">
         <v>0.6191550925925926</v>
       </c>
     </row>
@@ -17431,7 +17423,7 @@
       <c r="U38" s="3">
         <v>0.46967592592592594</v>
       </c>
-      <c r="V38" s="56">
+      <c r="V38" s="55">
         <v>0.62231481481481477</v>
       </c>
     </row>
@@ -17499,7 +17491,7 @@
       <c r="U39" s="3">
         <v>0.47247685185185184</v>
       </c>
-      <c r="V39" s="56">
+      <c r="V39" s="55">
         <v>0.62600694444444449</v>
       </c>
     </row>
@@ -17567,7 +17559,7 @@
       <c r="U40" s="11">
         <v>0.47568287037037038</v>
       </c>
-      <c r="V40" s="62">
+      <c r="V40" s="61">
         <v>0.63026620370370368</v>
       </c>
     </row>
@@ -17635,7 +17627,7 @@
       <c r="U41" s="3">
         <v>0.4792939814814815</v>
       </c>
-      <c r="V41" s="56">
+      <c r="V41" s="55">
         <v>0.63505787037037043</v>
       </c>
     </row>
@@ -17703,7 +17695,7 @@
       <c r="U42" s="3">
         <v>0.48321759259259262</v>
       </c>
-      <c r="V42" s="56">
+      <c r="V42" s="55">
         <v>0.64024305555555561</v>
       </c>
     </row>
@@ -17771,7 +17763,7 @@
       <c r="U43" s="3">
         <v>0.48719907407407409</v>
       </c>
-      <c r="V43" s="56">
+      <c r="V43" s="55">
         <v>0.64552083333333332</v>
       </c>
     </row>
@@ -17839,7 +17831,7 @@
       <c r="U44" s="3">
         <v>0.49123842592592593</v>
       </c>
-      <c r="V44" s="56">
+      <c r="V44" s="55">
         <v>0.65087962962962964</v>
       </c>
     </row>
@@ -17907,7 +17899,7 @@
       <c r="U45" s="11">
         <v>0.49535879629629631</v>
       </c>
-      <c r="V45" s="62">
+      <c r="V45" s="61">
         <v>0.65633101851851849</v>
       </c>
     </row>
@@ -17975,7 +17967,7 @@
       <c r="U46" s="3">
         <v>0.49949074074074074</v>
       </c>
-      <c r="V46" s="56">
+      <c r="V46" s="55">
         <v>0.66180555555555554</v>
       </c>
     </row>
@@ -18043,7 +18035,7 @@
       <c r="U47" s="3">
         <v>0.50373842592592588</v>
       </c>
-      <c r="V47" s="56">
+      <c r="V47" s="55">
         <v>0.66744212962962968</v>
       </c>
     </row>
@@ -18111,7 +18103,7 @@
       <c r="U48" s="3">
         <v>0.50806712962962963</v>
       </c>
-      <c r="V48" s="56">
+      <c r="V48" s="55">
         <v>0.67318287037037039</v>
       </c>
     </row>
@@ -18179,7 +18171,7 @@
       <c r="U49" s="3">
         <v>0.51247685185185188</v>
       </c>
-      <c r="V49" s="56">
+      <c r="V49" s="55">
         <v>0.67901620370370375</v>
       </c>
     </row>
@@ -18247,7 +18239,7 @@
       <c r="U50" s="11">
         <v>0.51695601851851847</v>
       </c>
-      <c r="V50" s="62">
+      <c r="V50" s="61">
         <v>0.68495370370370368</v>
       </c>
     </row>
@@ -18315,7 +18307,7 @@
       <c r="U51" s="3">
         <v>0.52145833333333336</v>
       </c>
-      <c r="V51" s="56">
+      <c r="V51" s="55">
         <v>0.6909143518518519</v>
       </c>
     </row>
@@ -18383,7 +18375,7 @@
       <c r="U52" s="3">
         <v>0.52609953703703705</v>
       </c>
-      <c r="V52" s="56">
+      <c r="V52" s="55">
         <v>0.6970601851851852</v>
       </c>
     </row>
@@ -18451,7 +18443,7 @@
       <c r="U53" s="3">
         <v>0.53082175925925923</v>
       </c>
-      <c r="V53" s="56">
+      <c r="V53" s="55">
         <v>0.70331018518518518</v>
       </c>
     </row>
@@ -18519,7 +18511,7 @@
       <c r="U54" s="3">
         <v>0.53562500000000002</v>
       </c>
-      <c r="V54" s="56">
+      <c r="V54" s="55">
         <v>0.70968750000000003</v>
       </c>
     </row>
@@ -18587,7 +18579,7 @@
       <c r="U55" s="11">
         <v>0.54052083333333334</v>
       </c>
-      <c r="V55" s="62">
+      <c r="V55" s="61">
         <v>0.71616898148148145</v>
       </c>
     </row>
@@ -18655,7 +18647,7 @@
       <c r="U56" s="3">
         <v>0.54543981481481485</v>
       </c>
-      <c r="V56" s="56">
+      <c r="V56" s="55">
         <v>0.72269675925925925</v>
       </c>
     </row>
@@ -18723,7 +18715,7 @@
       <c r="U57" s="3">
         <v>0.55052083333333335</v>
       </c>
-      <c r="V57" s="56">
+      <c r="V57" s="55">
         <v>0.72942129629629626</v>
       </c>
     </row>
@@ -18791,7 +18783,7 @@
       <c r="U58" s="3">
         <v>0.55569444444444449</v>
       </c>
-      <c r="V58" s="56">
+      <c r="V58" s="55">
         <v>0.73627314814814815</v>
       </c>
     </row>
@@ -18859,7 +18851,7 @@
       <c r="U59" s="3">
         <v>0.56097222222222221</v>
       </c>
-      <c r="V59" s="56">
+      <c r="V59" s="55">
         <v>0.74326388888888884</v>
       </c>
     </row>
@@ -18927,7 +18919,7 @@
       <c r="U60" s="11">
         <v>0.56634259259259256</v>
       </c>
-      <c r="V60" s="62">
+      <c r="V60" s="61">
         <v>0.75038194444444439</v>
       </c>
     </row>
@@ -18995,7 +18987,7 @@
       <c r="U61" s="3">
         <v>0.57174768518518515</v>
       </c>
-      <c r="V61" s="56">
+      <c r="V61" s="55">
         <v>0.75754629629629633</v>
       </c>
     </row>
@@ -19063,7 +19055,7 @@
       <c r="U62" s="3">
         <v>0.57732638888888888</v>
       </c>
-      <c r="V62" s="56">
+      <c r="V62" s="55">
         <v>0.7649421296296296</v>
       </c>
     </row>
@@ -19131,7 +19123,7 @@
       <c r="U63" s="3">
         <v>0.58302083333333332</v>
       </c>
-      <c r="V63" s="56">
+      <c r="V63" s="55">
         <v>0.77248842592592593</v>
       </c>
     </row>
@@ -19199,7 +19191,7 @@
       <c r="U64" s="3">
         <v>0.58883101851851849</v>
       </c>
-      <c r="V64" s="56">
+      <c r="V64" s="55">
         <v>0.78017361111111116</v>
       </c>
     </row>
@@ -19267,7 +19259,7 @@
       <c r="U65" s="11">
         <v>0.59474537037037034</v>
       </c>
-      <c r="V65" s="62">
+      <c r="V65" s="61">
         <v>0.78802083333333328</v>
       </c>
     </row>
@@ -19335,7 +19327,7 @@
       <c r="U66" s="3">
         <v>0.60071759259259261</v>
       </c>
-      <c r="V66" s="56">
+      <c r="V66" s="55">
         <v>0.79592592592592593</v>
       </c>
     </row>
@@ -19403,7 +19395,7 @@
       <c r="U67" s="3">
         <v>0.60687500000000005</v>
       </c>
-      <c r="V67" s="56">
+      <c r="V67" s="55">
         <v>0.80409722222222224</v>
       </c>
     </row>
@@ -19471,7 +19463,7 @@
       <c r="U68" s="3">
         <v>0.6131712962962963</v>
       </c>
-      <c r="V68" s="56">
+      <c r="V68" s="55">
         <v>0.81243055555555554</v>
       </c>
     </row>
@@ -19539,7 +19531,7 @@
       <c r="U69" s="3">
         <v>0.61959490740740741</v>
       </c>
-      <c r="V69" s="56">
+      <c r="V69" s="55">
         <v>0.82094907407407403</v>
       </c>
     </row>
@@ -19607,7 +19599,7 @@
       <c r="U70" s="11">
         <v>0.62615740740740744</v>
       </c>
-      <c r="V70" s="62">
+      <c r="V70" s="61">
         <v>0.82964120370370376</v>
       </c>
     </row>
@@ -19675,7 +19667,7 @@
       <c r="U71" s="3">
         <v>0.6330324074074074</v>
       </c>
-      <c r="V71" s="56">
+      <c r="V71" s="55">
         <v>0.83875</v>
       </c>
     </row>
@@ -19743,7 +19735,7 @@
       <c r="U72" s="3">
         <v>0.64077546296296295</v>
       </c>
-      <c r="V72" s="56">
+      <c r="V72" s="55">
         <v>0.84900462962962964</v>
       </c>
     </row>
@@ -19811,7 +19803,7 @@
       <c r="U73" s="3">
         <v>0.64924768518518516</v>
       </c>
-      <c r="V73" s="56">
+      <c r="V73" s="55">
         <v>0.86023148148148143</v>
       </c>
     </row>
@@ -19879,7 +19871,7 @@
       <c r="U74" s="3">
         <v>0.65870370370370368</v>
       </c>
-      <c r="V74" s="56">
+      <c r="V74" s="55">
         <v>0.87276620370370372</v>
       </c>
     </row>
@@ -19947,7 +19939,7 @@
       <c r="U75" s="11">
         <v>0.66912037037037042</v>
       </c>
-      <c r="V75" s="62">
+      <c r="V75" s="61">
         <v>0.88656250000000003</v>
       </c>
     </row>
@@ -20015,7 +20007,7 @@
       <c r="U76" s="3">
         <v>0.68047453703703709</v>
       </c>
-      <c r="V76" s="56">
+      <c r="V76" s="55">
         <v>0.90160879629629631</v>
       </c>
     </row>
@@ -20083,7 +20075,7 @@
       <c r="U77" s="3">
         <v>0.69305555555555554</v>
       </c>
-      <c r="V77" s="56">
+      <c r="V77" s="55">
         <v>0.91827546296296292</v>
       </c>
     </row>
@@ -20151,7 +20143,7 @@
       <c r="U78" s="3">
         <v>0.70674768518518516</v>
       </c>
-      <c r="V78" s="56">
+      <c r="V78" s="55">
         <v>0.93642361111111116</v>
       </c>
     </row>
@@ -20219,7 +20211,7 @@
       <c r="U79" s="47">
         <v>0.72190972222222227</v>
       </c>
-      <c r="V79" s="63">
+      <c r="V79" s="62">
         <v>0.95650462962962968</v>
       </c>
     </row>
@@ -20287,7 +20279,7 @@
       <c r="U80" s="48">
         <v>0.73855324074074069</v>
       </c>
-      <c r="V80" s="64">
+      <c r="V80" s="63">
         <v>0.97856481481481483</v>
       </c>
     </row>
@@ -20355,7 +20347,7 @@
       <c r="U81" s="47">
         <v>0.75672453703703701</v>
       </c>
-      <c r="V81" s="63">
+      <c r="V81" s="62">
         <v>1.0026388888888889</v>
       </c>
     </row>
@@ -20423,7 +20415,7 @@
       <c r="U82" s="47">
         <v>0.77686342592592594</v>
       </c>
-      <c r="V82" s="63">
+      <c r="V82" s="62">
         <v>1.0293287037037038</v>
       </c>
     </row>
@@ -20491,7 +20483,7 @@
       <c r="U83" s="47">
         <v>0.79893518518518514</v>
       </c>
-      <c r="V83" s="63">
+      <c r="V83" s="62">
         <v>1.0585648148148148</v>
       </c>
     </row>
@@ -20559,7 +20551,7 @@
       <c r="U84" s="47">
         <v>0.82347222222222227</v>
       </c>
-      <c r="V84" s="63">
+      <c r="V84" s="62">
         <v>1.0910763888888888</v>
       </c>
     </row>
@@ -20627,7 +20619,7 @@
       <c r="U85" s="48">
         <v>0.85065972222222219</v>
       </c>
-      <c r="V85" s="64">
+      <c r="V85" s="63">
         <v>1.1270949074074075</v>
       </c>
     </row>
@@ -20695,7 +20687,7 @@
       <c r="U86" s="47">
         <v>0.88070601851851849</v>
       </c>
-      <c r="V86" s="63">
+      <c r="V86" s="62">
         <v>1.1669097222222222</v>
       </c>
     </row>
@@ -20763,7 +20755,7 @@
       <c r="U87" s="47">
         <v>0.91440972222222228</v>
       </c>
-      <c r="V87" s="63">
+      <c r="V87" s="62">
         <v>1.2115625000000001</v>
       </c>
     </row>
@@ -20831,7 +20823,7 @@
       <c r="U88" s="47">
         <v>0.95196759259259256</v>
       </c>
-      <c r="V88" s="63">
+      <c r="V88" s="62">
         <v>1.2613194444444444</v>
       </c>
     </row>
@@ -20899,7 +20891,7 @@
       <c r="U89" s="47">
         <v>0.9944560185185185</v>
       </c>
-      <c r="V89" s="63">
+      <c r="V89" s="62">
         <v>1.3176157407407407</v>
       </c>
     </row>
@@ -20967,7 +20959,7 @@
       <c r="U90" s="48">
         <v>1.0425578703703704</v>
       </c>
-      <c r="V90" s="64">
+      <c r="V90" s="63">
         <v>1.3813541666666667</v>
       </c>
     </row>
@@ -21035,7 +21027,7 @@
       <c r="U91" s="47">
         <v>1.0971180555555555</v>
       </c>
-      <c r="V91" s="63">
+      <c r="V91" s="62">
         <v>1.4536458333333333</v>
       </c>
     </row>
@@ -21103,7 +21095,7 @@
       <c r="U92" s="47">
         <v>1.1600231481481482</v>
       </c>
-      <c r="V92" s="63">
+      <c r="V92" s="62">
         <v>1.5370023148148149</v>
       </c>
     </row>
@@ -21171,7 +21163,7 @@
       <c r="U93" s="47">
         <v>1.2325694444444444</v>
       </c>
-      <c r="V93" s="63">
+      <c r="V93" s="62">
         <v>1.6331134259259259</v>
       </c>
     </row>
@@ -21239,7 +21231,7 @@
       <c r="U94" s="47">
         <v>1.3177893518518518</v>
       </c>
-      <c r="V94" s="63">
+      <c r="V94" s="62">
         <v>1.7460300925925927</v>
       </c>
     </row>
@@ -21307,7 +21299,7 @@
       <c r="U95" s="48">
         <v>1.4187268518518519</v>
       </c>
-      <c r="V95" s="64">
+      <c r="V95" s="63">
         <v>1.8797685185185184</v>
       </c>
     </row>
@@ -21375,7 +21367,7 @@
       <c r="U96" s="47">
         <v>1.5394791666666667</v>
       </c>
-      <c r="V96" s="63">
+      <c r="V96" s="62">
         <v>2.0397569444444446</v>
       </c>
     </row>
@@ -21443,7 +21435,7 @@
       <c r="U97" s="47">
         <v>1.6876157407407408</v>
       </c>
-      <c r="V97" s="63">
+      <c r="V97" s="62">
         <v>2.2360416666666665</v>
       </c>
     </row>
@@ -21511,7 +21503,7 @@
       <c r="U98" s="47">
         <v>1.8718634259259259</v>
       </c>
-      <c r="V98" s="63">
+      <c r="V98" s="62">
         <v>2.480162037037037</v>
       </c>
     </row>
@@ -21579,7 +21571,7 @@
       <c r="U99" s="47">
         <v>2.1089467592592595</v>
       </c>
-      <c r="V99" s="63">
+      <c r="V99" s="62">
         <v>2.7942939814814816</v>
       </c>
     </row>
@@ -21647,7 +21639,7 @@
       <c r="U100" s="49">
         <v>2.4236805555555554</v>
       </c>
-      <c r="V100" s="65">
+      <c r="V100" s="64">
         <v>3.2113078703703706</v>
       </c>
     </row>
@@ -21808,7 +21800,7 @@
       <c r="V106" s="14"/>
     </row>
     <row r="107" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="51" t="s">
+      <c r="A107" s="38" t="s">
         <v>34</v>
       </c>
     </row>
